--- a/excel/validation.xlsx
+++ b/excel/validation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/GK47LX/source/office/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2348E1C9-2CFC-FB4C-98E2-2C4EE9A6E3CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5E94B2-1A42-4B44-93E7-1F30EE95D950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20440" xr2:uid="{11F90907-D0F3-EE49-8B50-E4314E23B54D}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20440" activeTab="1" xr2:uid="{11F90907-D0F3-EE49-8B50-E4314E23B54D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>people</t>
   </si>
@@ -70,12 +70,30 @@
   </si>
   <si>
     <t>Amount</t>
+  </si>
+  <si>
+    <t>g1234</t>
+  </si>
+  <si>
+    <t>My code</t>
+  </si>
+  <si>
+    <t>BRAZIL Code</t>
+  </si>
+  <si>
+    <t>BR12</t>
+  </si>
+  <si>
+    <t>One or another</t>
+  </si>
+  <si>
+    <t>XXX</t>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -85,7 +103,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -102,7 +120,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -112,7 +130,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -127,43 +145,10 @@
     </r>
   </si>
   <si>
-    <t>g1234</t>
-  </si>
-  <si>
-    <t>My code</t>
-  </si>
-  <si>
-    <t>BRAZIL Code</t>
-  </si>
-  <si>
-    <r>
-      <t>0. Must start with 'BR' then 2 numbers</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1.Select the first cell (D3)
-2. Goto Data -&gt; Data Validation
-3. Custom
-4. You can use any formula, using 
-= AND(LEN(D3)= 4; ISNUMBER(VALUE(RIGHT(D3;2))); LEFT(D3;2) ="BR")
-5. The formula is per cell, you need to copy the cell D3, select D4:D18 and then paste special "Paste Validation"</t>
-    </r>
-  </si>
-  <si>
-    <t>BR12</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -173,7 +158,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -190,7 +175,25 @@
     </r>
   </si>
   <si>
-    <t>One or another</t>
+    <r>
+      <t>0. Must start with 'BR' then 2 numbers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.Select the first cell (D3)
+2. Goto Data -&gt; Data Validation
+3. Custom
+4. You can use any formula, using 
+= AND(LEN(D3)= 4; ISNUMBER(VALUE(RIGHT(D3;2))); LEFT(D3;2) ="BR")
+5. The formula is per cell, you need to copy the cell D3, select D4:D18 and then paste special "Paste Validation"</t>
+    </r>
   </si>
   <si>
     <r>
@@ -199,7 +202,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -208,13 +211,19 @@
       <t xml:space="preserve">1. Custom validation as columns C and D
 </t>
     </r>
+  </si>
+  <si>
+    <t>br34</t>
+  </si>
+  <si>
+    <t>s1234</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -231,15 +240,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -254,7 +278,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -262,24 +286,233 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -293,14 +526,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{94AC3431-68FD-1E4F-821E-799F86AA08EF}" name="Table1" displayName="Table1" ref="A2:E18" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{94AC3431-68FD-1E4F-821E-799F86AA08EF}" name="Table1" displayName="Table1" ref="A2:E18" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A2:E18" xr:uid="{94AC3431-68FD-1E4F-821E-799F86AA08EF}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{6CB896A2-0D8E-E644-A21F-73D63FC773F9}" name="People"/>
-    <tableColumn id="2" xr3:uid="{DBF202B8-8E2F-C34C-B302-0C094946326E}" name="Amount"/>
-    <tableColumn id="3" xr3:uid="{6FEB2685-89FE-B947-A853-5130D4C07C55}" name="My code"/>
-    <tableColumn id="4" xr3:uid="{5386A051-33E0-164E-A190-E1F60F996FA3}" name="BRAZIL Code"/>
-    <tableColumn id="5" xr3:uid="{471042A3-4E0D-8C4C-8942-6402DFA5B38C}" name="One or another"/>
+    <tableColumn id="1" xr3:uid="{6CB896A2-0D8E-E644-A21F-73D63FC773F9}" name="People" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{DBF202B8-8E2F-C34C-B302-0C094946326E}" name="Amount" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{6FEB2685-89FE-B947-A853-5130D4C07C55}" name="My code" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{5386A051-33E0-164E-A190-E1F60F996FA3}" name="BRAZIL Code" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{471042A3-4E0D-8C4C-8942-6402DFA5B38C}" name="One or another" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -603,68 +836,185 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E272302F-DE0B-0A4C-8FCD-5A26BA63BF1F}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" customWidth="1"/>
-    <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="38.5" customWidth="1"/>
-    <col min="4" max="4" width="37.33203125" customWidth="1"/>
-    <col min="5" max="5" width="27.33203125" customWidth="1"/>
+    <col min="1" max="1" width="33" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="37.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="204" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5">
+        <v>12.12</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5">
         <v>12</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>12.12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
     </row>
   </sheetData>
   <dataValidations count="4">
@@ -704,7 +1054,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4306CCDA-59C3-5E4B-966A-8A5DF7CA8D63}">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>

--- a/excel/validation.xlsx
+++ b/excel/validation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/GK47LX/source/office/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5E94B2-1A42-4B44-93E7-1F30EE95D950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174B63FE-A7FD-FB43-9238-EB2BF241A825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20440" activeTab="1" xr2:uid="{11F90907-D0F3-EE49-8B50-E4314E23B54D}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>people</t>
   </si>
@@ -196,6 +196,12 @@
     </r>
   </si>
   <si>
+    <t>br34</t>
+  </si>
+  <si>
+    <t>s1234</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">0. Must be 'XXX' or 2 numbers
 </t>
@@ -208,15 +214,10 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">1. Custom validation as columns C and D
-</t>
+      <t>1. Custom validation as columns C and D
+2. Using formula 
+=OR(E4="XXX";AND(LEN(E4)= 2; ISNUMBER(E4)))</t>
     </r>
-  </si>
-  <si>
-    <t>br34</t>
-  </si>
-  <si>
-    <t>s1234</t>
   </si>
 </sst>
 </file>
@@ -839,7 +840,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -866,7 +867,7 @@
         <v>20</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -899,7 +900,9 @@
       <c r="D3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
@@ -996,7 +999,7 @@
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E16" s="5"/>
     </row>
@@ -1004,7 +1007,7 @@
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
